--- a/spreadsheet/macrofree/appsvc_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/appsvc_checklist.ja.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1069,10 +1069,14 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ベスト プラクティスについては、「ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャ」を参照してください</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
+          <t>ベースラインの高可用性ゾーン冗長 Web アプリケーション アーキテクチャを実装します。ゾーン冗長サポートのために、Azure App Service が Premium V2/V3 または Isolated v2 レベルにあることを確認します。</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>ゾーン冗長性を活用して、ゾーン レベルの障害が発生した場合の高可用性を確保します。Premium V2/V3 または Isolated v2 レベルを使用すると、ゾーン冗長デプロイがサポートされ、災害時のダウンタイムが最小限に抑えられます。</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
           <t>低い</t>
@@ -1086,7 +1090,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1105,7 +1109,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,10 +1119,14 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Premium レベルと Standard レベルを使用します。これらの層では、ステージング スロットと自動バックアップがサポートされています。</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="n"/>
+          <t>Premium レベルと Standard レベルは、ステージング スロットと自動バックアップに使用します。バックアップの保持期間をディザスタリカバリのニーズに合わせて調整します。</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>ステージングスロットを活用して、ダウンタイムなしのデプロイと自動バックアップを実現し、ディザスタリカバリを確保します。スロットの数とディザスター リカバリーの要件に基づいて、適切なレベル (Standard または Premium) を選択します。</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1132,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1151,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1161,10 +1169,14 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>リージョンで適用可能な場合は Availability Zones を活用します (Premium v2 または v3 レベルが必要)</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n"/>
+          <t>地域的に適用可能な場合は、Availability Zones を活用します (Premium V2/V3 レベルが必要です)。Availability Zones のリージョンサポートを確認します。</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>Availability Zones は、リージョン内のデータセンター間で物理的に分離し、停止中のダウンタイムを削減します。リージョンが Availability Zones をサポートしていることを確認し、ゾーン冗長デプロイに Premium V2/V3 レベルを使用します。</t>
+        </is>
+      </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1178,7 +1190,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/migrate-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-service</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1207,10 +1219,14 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>ヘルスチェックの実装</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n"/>
+          <t>正常性チェックを実装して、App Service インスタンスの問題を監視および検出します。ヘルスチェックにより、障害発生時の自動インスタンス置換が可能になります。</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>ヘルスチェックを有効にして、異常なインスタンスをリアルタイムで検出し、それらを自動的に置き換えて、高可用性とアプリケーションの信頼性を維持します。</t>
+        </is>
+      </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1224,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1253,10 +1269,14 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>「Azure App Service のバックアップと復元のベスト プラクティス」を参照してください</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Azure App Service と App Service Environment (ASE) のバックアップと復元のベスト プラクティスを参照して、データの可用性と復旧を確保します。</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service と ASE でバックアップと復元を構成するためのベスト プラクティスに従って、データの可用性を保証し、障害シナリオ時の復旧を確保します。</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1270,7 +1290,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-backup</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-backup</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1289,7 +1309,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1299,10 +1319,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性に関するベスト プラクティスを実装する</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Azure App Service の信頼性に関するベスト プラクティス (自動スケーリング、フォールト トレランス、正常性チェック、ゾーン冗長性など) を実装します。</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>スケーリング、フォールト トレランス、監視、ゾーン冗長性を App Service アーキテクチャに組み込むことで、高可用性を確保します。ヘルスチェックとアベイラビリティーゾーンを活用して、稼働時間を維持します。</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1316,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1335,7 +1359,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1345,10 +1369,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>災害時に App Service アプリを別のリージョンに移動する方法を理解する</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>App Service リージョンのフェールオーバー (アクティブ/アクティブ構成とアクティブ/パッシブ構成、自動フェールオーバー、IaC デプロイなど) について理解します。</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>リージョンのフェイルオーバー戦略を実装して、ディザスタリカバリに備えます。アクティブ/アクティブおよびアクティブ/パッシブ構成、自動フェイルオーバー、Infrastructure as Code(IaC)を活用して、停止時のシームレスなフェイルオーバーを実現します。</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>低い</t>
@@ -1362,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1381,7 +1409,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,10 +1419,14 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure App Service の信頼性サポートについて理解する</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="n"/>
+          <t>Azure App Service での信頼性サポート (スケーリング オプション、SLA、自動復旧メカニズムなど) について理解します。</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service には、スケーリング、フォールト トレランス、サービス レベル アグリーメント (SLA) など、信頼性機能が組み込まれています。これらの機能を活用して、停止時に一貫したパフォーマンスを維持します。</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>高い</t>
@@ -1408,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/reliability-app-service</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1427,7 +1459,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,10 +1469,14 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>App Service プランで実行されている Function Apps に対して "Always On" が有効になっていることを確認する</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>App Service プランで実行されている関数アプリで "Always On" が有効になっていることを確認して、アイドリングを防ぎ、継続的な可用性を確保します。</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Function Appsの「Always On」を有効にすると、アプリがアイドル状態になることがなくなり、常に可用性と応答性が維持されます。</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1454,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-functions/dedicated-plan#always-on</t>
+          <t>https://learn.microsoft.com/azure/azure-functions/dedicated-plan#always-on</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1483,10 +1519,14 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>正常性チェックを使用した App Service インスタンスの監視</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>正常性チェックを使用して App Service インスタンスを監視し、異常なインスタンスを検出し、自動的に置き換えます。</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>正常性チェックでは、App Service インスタンスの正常性が監視され、問題のあるインスタンスを自動的に置き換えて高可用性を維持できます。</t>
+        </is>
+      </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1500,7 +1540,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1524,15 +1564,19 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視する</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>カスタム ルールと共に自動修復を使用して、エラー発生時に App Service インスタンスを自動的に再起動します。</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service の自動修復を活用して、インスタンスを自動的に再起動したり、メモリのしきい値、HTTP エラー、特定のイベント ログなどの事前定義された障害条件に基づいてカスタム アクションをトリガーしたりできます。</t>
+        </is>
+      </c>
       <c r="E18" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1546,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-diagnostics</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>60b3a935-33e5-45c9-87c7-53882e395b46</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1575,13 +1619,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
+          <t>Application Insights の可用性テストを使用して Web アプリまたは Web サイトの可用性と応答性を監視し、パフォーマンスの問題とダウンタイムをプロアクティブに検出します。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1636,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-standard-tests</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1644,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,27 +1655,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Key Vault を使用してシークレットを格納する</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
-        </is>
-      </c>
+          <t>Application Insights Standard テストを使用して、Web アプリまたは Web サイトの可用性と応答性を監視する</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1642,7 +1682,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-standard-tests</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1650,7 +1690,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1661,27 +1701,27 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して Key Vault に接続する</t>
+          <t>応答時間やエラー率などの重要な Application Insights メトリックのアラートを設定します。</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault 参照を使用して Key Vault に接続します。</t>
+          <t>Azure Monitor アラートは、応答時間、エラー率、全体的な可用性に関する Application Insights メトリックに基づいて構成します。アラートは、問題を事前に検出し、平均復旧時間 (MTTR) を短縮するのに役立ちます。</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1692,7 +1732,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/alerts</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1700,7 +1740,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>e52e4514-02a7-4e81-a98e-88ce1b18e557</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1721,12 +1761,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Key Vault を使用して TLS 証明書を格納します。</t>
+          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。Key Vault は、シークレットを格納するためのセキュリティで保護された管理された監査済みの環境を提供し、App Service Key Vault 参照を介して App Service とシームレスに統合してセキュリティを強化します。</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>App Service TLS 証明書を Key Vault に格納します。</t>
+          <t>Azure Key Vault は、シークレットが暗号化され、安全に格納され、承認されたアプリケーションのみがアクセスできるようにします。監査ログとシークレット バージョニングをサポートし、機密情報が誤って公開されるリスクを軽減します。</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1742,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1750,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1771,17 +1811,17 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムを分離する</t>
+          <t>マネージド ID を使用して、App Service Key Vault 参照を通じてシークレットにアクセスするための Azure Key Vault に安全に接続します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムは分離する必要があります。 そのためには、個別の App Service プランまたは App Service Environment を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+          <t>マネージド ID を使用すると、App Service が Azure Key Vault に対して安全に認証できるため、ハードコーディングされた資格情報が不要になります。これにより、資格情報の公開リスクが軽減され、シークレット管理が簡素化されてセキュリティが強化されます。</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1792,7 +1832,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1800,7 +1840,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1821,17 +1861,17 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>機密データをローカルディスクに保存しない</t>
+          <t>Azure Key Vault を使用して、App Service の TLS 証明書を安全に格納および管理します。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>App Service のローカル ディスクは暗号化されていないため、機密データを格納しないでください。 (例: D:\\Local and %TMP%)。</t>
+          <t>TLS 証明書を Azure Key Vault に格納すると、証明書の一元化された安全な管理と自動更新が提供され、セキュリティが強化されます。これにより、手作業によるエラーや証明書の期限切れのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1842,7 +1882,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1850,7 +1890,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1866,17 +1906,17 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス制御</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>認証に確立された ID プロバイダーを使用する</t>
+          <t>個別の App Service プラン、App Service Environment (ASE) を使用して機密情報を処理するシステムを分離し、セキュリティを強化するために異なるサブスクリプションまたは管理グループを検討します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
+          <t>露出を最小限に抑え、セキュリティを向上させるには、機密データを処理するシステムを分離します。分離のために個別の App Service プランまたは App Service Environment を活用し、異なるサブスクリプションまたは管理グループを使用して、より厳格な境界とガバナンスを適用します。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1892,7 +1932,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1900,7 +1940,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1916,22 +1956,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス制御</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>信頼できる環境からのデプロイ</t>
+          <t>機密データをローカルディスクに保存しないでください</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストからデプロイされることが確認されていないコードが回避されます。</t>
+          <t>App Service 上のローカル ディスクは暗号化されていないため、機密データをそれらに格納しないでください。 (例: D:\\Local と %TMP%)。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1942,7 +1982,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1950,7 +1990,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,17 +2011,17 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>基本認証の無効化</t>
+          <t>Microsoft Entra ID または B2C を使用して、安全な認証とシングル サインオン (SSO) を実現します。</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
+          <t>Microsoft Entra ID または B2C を使用して、アプリケーション間での安全なユーザー認証とシングル サインオン (SSO) を実現します。組み込みの App Service 認証/承認機能を使用して統合し、セキュリティを効率化し、OpenID Connect などの最新の認証プロトコルに準拠します。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1992,14 +2032,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2020,12 +2060,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してリソースに接続する</t>
+          <t>信頼できる安全な環境から App Service にコードをデプロイします。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、Key Vault にシークレットを格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
+          <t>App Service へのすべてのコード デプロイが、適切に管理された DevOps パイプラインなど、制御されたセキュリティで保護された環境から行われるようにします。このプラクティスにより、バージョン管理、コード検証、および安全なホスティングを実施することで、承認されていないコードや悪意のあるコードをデプロイするリスクが軽減されます。</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2041,14 +2081,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2069,12 +2109,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してコンテナーをプルするPull containers using a Managed Identity</t>
+          <t>FTP/FTPS および WebDeploy/SCM の基本認証を無効にします。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
+          <t>FTP/FTPS と WebDeploy/SCM の基本認証を無効にして、デプロイに Microsoft Entra ID で保護されたエンドポイントを適用することでセキュリティを強化します。これにより、Microsoft Entra ID 資格情報を使用して認証されたユーザーのみが、SCM サイトを含むデプロイ サービスにアクセスできるようになります。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2090,14 +2130,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,22 +2153,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>ログ記録と監視</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>App Service ランタイム ログを Log Analytics に送信する</t>
+          <t>マネージド ID を使用して、Microsoft Entra ID で保護されたリソースに接続します。</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>App Service の診断設定を構成することで、ログ記録と監視の中央の宛先として、すべてのテレメトリを Log Analytics に送信できます。これにより、HTTP ログ、アプリケーション ログ、プラットフォーム ログなどの App Service のランタイム アクティビティを監視できます。</t>
+          <t>可能な限り、マネージド ID を使用して、資格情報を格納せずに Microsoft Entra ID で保護されたリソースに安全に接続します。これが不可能な場合は、シークレットを Azure Key Vault に格納し、マネージド ID を使用してアクセスすることで、セキュリティを維持し、資格情報の公開リスクを軽減します。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2139,14 +2179,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,22 +2202,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>ログ記録と監視</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
+          <t>マネージド ID を使用して、Azure Container Registry からコンテナー イメージをプルします。</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>ログ記録と監視の中央の宛先としてアクティビティ ログを Log Analytics に送信するための診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
+          <t>Azure Container Registryに格納されているイメージを使用する場合は、マネージド ID を使用してこれらのイメージをプルし、資格情報の保存を回避します。これにより、コンテナイメージへの安全なアクセスが確保され、資格情報が公開されるリスクが軽減されます。</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2188,14 +2228,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2211,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ロギングとモニタリング</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>送信ネットワーク アクセスを制御する必要がある</t>
+          <t>App Service のランタイム ログとセキュリティ ログを Log Analytics に送信して、一元的な監視とアラートを行います。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>リージョンの VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure Firewall などの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
+          <t>テレメトリとセキュリティ ログ (HTTP、プラットフォーム、監査ログを含む) を Log Analytics に送信するように診断設定を構成します。一元化されたロギングにより、監視、脅威検出、コンプライアンスレポートが強化されます。</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2237,7 +2277,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2285,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,22 +2301,22 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ロギングとモニタリング</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>インターネットアドレスへの送信通信のIPを安定させる</t>
+          <t>App Service アクティビティ ログを Log Analytics に送信する</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure Firewall などの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 多くの場合、Azure サービスへの通信では、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
+          <t>アクティビティ ログをログ記録と監視の中心的な宛先として Log Analytics に送信するように診断設定を設定します。これにより、App Service リソース自体のコントロール プレーン アクティビティを監視できます。</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2287,7 +2327,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2295,7 +2335,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2316,17 +2356,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>受信ネットワーク アクセスを制御する必要がある</t>
+          <t>VNet 統合、NSG、UDR、ファイアウォールを使用して、App Service の送信ネットワーク アクセスを制御します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成できます。</t>
+          <t>リージョン VNet 統合、ネットワーク セキュリティ グループ (NSG)、ユーザー定義ルート (UDR) を使用して、送信ネットワーク アクセスを制御します。Azure Firewall などのネットワーク仮想アプライアンス (NVA) を介してトラフィックをルーティングし、ファイアウォール ログを監視して、トラフィックが適切に制御され、セキュリティで保護されていることを確認します。</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2337,7 +2377,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2345,7 +2385,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2366,17 +2406,17 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>App Service の前で WAF を使用するUse a WAF in Front of App Service</t>
+          <t>VNet NAT ゲートウェイまたは Azure Firewall を使用して、送信通信用の安定した IP を確保します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway や Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAFのログを必ず監視してください。</t>
+          <t>NAT ゲートウェイまたは Azure Firewall などのネットワーク仮想アプライアンス (NVA) との VNet 統合を使用して、安定した送信 IP を提供します。これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。Azure サービスとの通信では、サービス エンドポイントやプライベート エンドポイントなどのメカニズムを使用して、静的 IP に依存しないようにし、安全で効率的な接続を確保します。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2387,7 +2427,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2395,7 +2435,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2416,12 +2456,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>WAFをバイパスすることは避けてください</t>
+          <t>アクセス制限、サービスエンドポイント、またはプライベートエンドポイントを使用して、インバウンドネットワークアクセスを制御します。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>WAFのみへのアクセスをロックダウンすることで、WAFをバイパスできないようにします。 アクセス制限、サービス・エンドポイントおよびプライベート・エンドポイントを組み合わせて使用します。</t>
+          <t>App Service のアクセス制限、サービス エンドポイント、またはプライベート エンドポイントを構成することで、受信ネットワーク アクセスを制御します。Web アプリと SCM (デプロイ) サイトの両方に適切な制限が設定されていることを確認して、不正アクセスを制限し、セキュリティを強化します。</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2445,7 +2485,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2466,17 +2506,17 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>App Service の前で Web アプリケーション ファイアウォール (WAF) を使用します。</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>App Service の構成で最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>Azure Application Gateway または Azure Front Door を使用して Web アプリケーション ファイアウォール (WAF) をデプロイすることで、悪意のある受信トラフィックから App Service を保護します。WAFログが定期的に監視され、セキュリティの脅威を検出して対応していることを確認します。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2527,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2495,7 +2535,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2516,12 +2556,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用</t>
+          <t>App Service へのアクセスをセキュリティで保護することで、WAF がバイパスされないようにします。</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 HTTP Strict Transport Security (HSTS) をコード内または WAF から使用して、サイトに HTTPS を使用してのみアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
+          <t>Web アプリケーション ファイアウォール (WAF) がバイパスされないようにするには、アクセス制限、サービス エンドポイント、およびプライベート エンドポイントを使用して App Service へのアクセスをロックダウンします。これにより、すべてのトラフィックがWAF経由でルーティングされ、安全なフロントレイヤーの保護が提供されます。</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2537,7 +2577,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2545,7 +2585,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2566,17 +2606,17 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>ワイルドカードは CORS に使用しないでください</t>
+          <t>App Service 構成で、最小 TLS ポリシーを 1.2 以上 (できれば 1.3) に設定します。</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>CORS 構成では、すべての配信元がサービスにアクセスできるため、ワイルドカードを使用しないでください (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想される配信元のみを許可します。</t>
+          <t>最小 TLS ポリシーが 1.2 以上に設定されていることを確認し、TLS 1.3 を優先して、より強力な暗号化プロトコルを通じてセキュリティを強化します。TLS 1.3 では、セキュリティがさらに強化され、ハンドシェイク時間が短縮され、古いバージョンに関連する脆弱性が軽減されます。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2627,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2595,7 +2635,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2616,12 +2656,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>リモートデバッグをオフにする</t>
+          <t>HTTPS のみを使用し、HTTP Strict Transport Security (HSTS) を有効にすることを検討してください。</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>リモート デバッグは、サービスに追加のポートが開き、攻撃対象領域が増加するため、運用環境でオンにしないでください。このサービスは、48 時間後に自動的にリモート デバッグをオフにすることに注意してください。</t>
+          <t>HTTPS のみを適用するように App Service を構成し、すべての HTTP トラフィックを HTTPS に自動的にリダイレクトします。さらに、コードにHSTS(HTTP Strict Transport Security)を実装するか、WAF(Web Application Firewall)を介して実装し、ブラウザがHTTPS経由でのみサイトにアクセスするようにし、ダウングレード攻撃を防ぐことでセキュリティを強化します。</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2637,7 +2677,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2645,7 +2685,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2666,17 +2706,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Defender for Cloud を有効にする - Defender for App Service</t>
+          <t>CORS にワイルドカードを使用することは避けてください。許可されたオリジンを明示的に指定します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
+          <t>CORS 設定でワイルドカード (*) を使用すると、任意のオリジンからの無制限のアクセスが許可され、セキュリティが損なわれるため、使用しないでください。代わりに、サービスへのアクセスが許可されている信頼できるオリジンを明示的に指定し、アクセスが制御されるようにします。</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2687,7 +2727,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2695,7 +2735,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2716,17 +2756,17 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>WAF VNet で DDoS Protection Standard を有効にするEnable DDOS Protection Standard on the WAF VNet</t>
+          <t>運用環境でのリモート デバッグをオフにします。</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供しており、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
+          <t>リモートデバッグは、追加のポートを開き、攻撃対象領域を増やすため、本番環境では有効にしないでください。App Service では 48 時間後にリモート デバッグが自動的にオフになりますが、運用環境では、セキュリティで保護された環境を維持するために手動で無効にすることをお勧めします。</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,7 +2777,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2745,7 +2785,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2766,12 +2806,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Virtual Network 経由でコンテナーをプルする</t>
+          <t>Defender for Cloud を有効にする - Defender for App Service</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure Container Registry から仮想ネットワーク経由でイメージをプルします。</t>
+          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも特に)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2787,7 +2827,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2795,7 +2835,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2811,17 +2851,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>ペネトレーションテスト</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>ペネトレーションテストの実施</t>
+          <t>WAF VNet で DDOS Protection Standard を有効にする</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>ペネトレーションテストのルールに従って、Webアプリケーションでペネトレーションテストを実施します。</t>
+          <t>Azure は、ネットワーク上で DDoS Basic 保護を提供し、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能で改善できます。DDoS Standard は仮想ネットワークに適用されるため、Application Gateway や NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2837,7 +2877,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2845,7 +2885,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2861,17 +2901,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>脆弱性管理</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>検証済みコードのデプロイ</t>
+          <t>Azure Container Registry から Virtual Network 経由でコンテナー イメージをプルします。</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
+          <t>Azure Container Registry に格納されているイメージを使用する場合は、プライベート エンドポイントを使用し、アプリ設定 'WEBSITE_PULL_IMAGE_OVER_VNET' を構成することで、仮想ネットワーク経由でプルされていることを確認します。これにより、App Service とレジストリ間の通信がセキュリティで保護され、パブリック インターネットへの露出が防止されます。</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2887,14 +2927,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2910,22 +2950,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>脆弱性管理</t>
+          <t>ペネトレーションテスト</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
+          <t>Web アプリケーションで侵入テストを実施します。</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
+          <t>Azure の侵入テストの実施ルールに従って、Web アプリケーションで侵入テストを実行します。これにより、悪用される前に対処できる脆弱性やセキュリティの弱点を特定することができます。</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2936,7 +2976,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2944,7 +2984,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2953,83 +2993,248 @@
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>脆弱性管理</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>検証済みで脆弱性がスキャンされたコードをデプロイします。</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>脆弱性が検証およびスキャンされた信頼できるコードのみが、DevSecOps プラクティスに従って本番環境にデプロイされるようにします。これにより、アプリケーション環境にセキュリティの脆弱性が持ち込まれるリスクが最小限に抑えられます。</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>脆弱性管理</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="inlineStr">
+        <is>
+          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンが使用されていることを確認します。定期的な更新により、セキュリティの脆弱性のリスクが軽減され、セキュリティパッチとの互換性が確保されます。</t>
+        </is>
+      </c>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>コストガバナンス</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>コスト監視</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Azure Cost Management を使用して App Service のコストを監視し、コスト アラートを作成します。</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="inlineStr">
+        <is>
+          <t>Azure Cost Management を活用して、App Service の経費を追跡および予測します。予算のしきい値のアラートを設定して、支出超過を回避し、リソース使用率の傾向に基づいてコストを最適化します。</t>
+        </is>
+      </c>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>42eb48f0-28ff-497c-b2c0-a8fa1f989832</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>コストガバナンス</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>App Service プランの予約インスタンスを購入して、長期的なコストを最適化します。</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>App Service を予測可能で安定して使用している場合は、リザーブド インスタンスを購入することで、長期的なコストを大幅に削減できます。1年または3年契約すると、従量課金制に比べて低価格になります。</t>
+        </is>
+      </c>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>e489221b-487e-48a3-aaab-48e3d205ca12</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>ガバナンスとセキュリティ</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>コンプライアンス</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy を適用して、App Service 構成全体にコンプライアンスを適用します。</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy を使用して、App Service のセキュリティ、コンプライアンス、ガバナンスの構成を適用します。ポリシーを使用すると、TLS バージョン、バックアップ構成、ネットワーク制限などの重要な設定が、すべての App Service インスタンスに適用されるようにすることができます。</t>
+        </is>
+      </c>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>361e886f-ca40-4ead-a8e9-1379c642ae9c</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -7046,7 +7251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7152,7 +7357,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ検討されていません</t>
+          <t>このチェックはまだ見ていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7174,7 +7379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7201,12 +7406,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BCとDR</t>
+          <t>BC と DR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みであり、これ以上のアクション アイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7240,7 +7445,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>必要なし</t>
+          <t>必須ではありません</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7250,7 +7455,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>必要なし</t>
+          <t>必須ではありません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -7269,7 +7474,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>アプリケーションのデプロイメント</t>
         </is>
       </c>
     </row>
